--- a/ResEditor/Design/Stage/G_EnemyBullet.xlsx
+++ b/ResEditor/Design/Stage/G_EnemyBullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="11440" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="10400" yWindow="6860" windowWidth="25600" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,23 +126,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmplId</t>
+    <t>激光?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,229 +527,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="46.5" customWidth="1"/>
+    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1"/>
+    <row r="5" spans="1:8" hidden="1"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>10600100</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1"/>
-    <row r="5" spans="1:10" hidden="1"/>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>10600101</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10600101</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>10600200</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>10600102</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10600101</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>10600201</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10600201</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>10600300</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>10600301</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10600301</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>10600400</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>10600500</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10600600</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10600700</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>10600800</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>10600900</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>10601000</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>10601100</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>10601200</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>10601300</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
         <v>999</v>
       </c>
     </row>
@@ -790,14 +907,14 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/ResEditor/Design/Stage/G_EnemyBullet.xlsx
+++ b/ResEditor/Design/Stage/G_EnemyBullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="6860" windowWidth="25600" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="10980" yWindow="7300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,18 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额外效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,11 +102,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额外效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectEx</t>
+    <t>激光?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,7 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激光?</t>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,8 +178,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -195,9 +189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,15 +526,19 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -549,22 +549,22 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -575,21 +575,18 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -601,21 +598,18 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -625,88 +619,88 @@
       <c r="A6" s="1">
         <v>10600100</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
       <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>999</v>
+        <v>999</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>10600200</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>999</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>10600300</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>999</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>10600400</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
       <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
         <v>999</v>
       </c>
     </row>
@@ -714,19 +708,19 @@
       <c r="A10" s="1">
         <v>10600500</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
       <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
         <v>999</v>
       </c>
     </row>
@@ -734,19 +728,19 @@
       <c r="A11" s="1">
         <v>10600600</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
       <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
         <v>999</v>
       </c>
     </row>
@@ -754,19 +748,19 @@
       <c r="A12" s="1">
         <v>10600700</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
       <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
         <v>999</v>
       </c>
     </row>
@@ -774,19 +768,19 @@
       <c r="A13" s="1">
         <v>10600800</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
       <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
         <v>999</v>
       </c>
     </row>
@@ -794,19 +788,19 @@
       <c r="A14" s="1">
         <v>10600900</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
       <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
         <v>999</v>
       </c>
     </row>
@@ -814,19 +808,19 @@
       <c r="A15" s="1">
         <v>10601000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
       <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
         <v>999</v>
       </c>
     </row>
@@ -834,59 +828,59 @@
       <c r="A16" s="1">
         <v>10601100</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
       <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>10601200</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
       <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>10601300</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
       <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
         <v>999</v>
       </c>
     </row>

--- a/ResEditor/Design/Stage/G_EnemyBullet.xlsx
+++ b/ResEditor/Design/Stage/G_EnemyBullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="7300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="6820" yWindow="8440" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -541,7 +549,7 @@
     <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -566,8 +574,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -590,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -613,9 +624,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1"/>
-    <row r="5" spans="1:8" hidden="1"/>
-    <row r="6" spans="1:8">
+    <row r="4" spans="1:9" hidden="1"/>
+    <row r="5" spans="1:9" hidden="1"/>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>10600100</v>
       </c>
@@ -638,7 +649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>10600200</v>
       </c>
@@ -661,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>10600300</v>
       </c>
@@ -684,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>10600400</v>
       </c>
@@ -703,8 +714,11 @@
       <c r="G9">
         <v>999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>10600500</v>
       </c>
@@ -724,7 +738,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10600600</v>
       </c>
@@ -744,7 +758,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10600700</v>
       </c>
@@ -764,7 +778,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>10600800</v>
       </c>
@@ -784,7 +798,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>10600900</v>
       </c>
@@ -804,7 +818,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>10601000</v>
       </c>
@@ -824,7 +838,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>10601100</v>
       </c>

--- a/ResEditor/Design/Stage/G_EnemyBullet.xlsx
+++ b/ResEditor/Design/Stage/G_EnemyBullet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="8440" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="6825" yWindow="8445" windowWidth="25605" windowHeight="16125" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -133,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,15 +198,540 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="542925"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="723900"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="904875"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="1085850"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="1266825"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="1447800"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="1628775"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="1809750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="1990725"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="2171700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="2352675"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="3409950"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10791825" y="3200400"/>
+          <a:ext cx="76200" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,19 +1055,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
@@ -778,7 +1303,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="27" customHeight="1">
       <c r="A13" s="1">
         <v>10600800</v>
       </c>
@@ -798,7 +1323,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="31.5" customHeight="1">
       <c r="A14" s="1">
         <v>10600900</v>
       </c>
@@ -818,7 +1343,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1">
       <c r="A15" s="1">
         <v>10601000</v>
       </c>
@@ -838,7 +1363,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="21.75" customHeight="1">
       <c r="A16" s="1">
         <v>10601100</v>
       </c>
@@ -858,7 +1383,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>10601200</v>
       </c>
@@ -895,6 +1420,186 @@
         <v>100</v>
       </c>
       <c r="G18">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>10601400</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>10601500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>10601600</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>10601700</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>10601800</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>10601900</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>10602000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>10602100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>10602200</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
         <v>999</v>
       </c>
     </row>
@@ -902,6 +1607,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -911,14 +1617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
